--- a/5拱的稳定/ArchShape.xlsx
+++ b/5拱的稳定/ArchShape.xlsx
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.5</v>
       </c>
@@ -745,7 +745,7 @@
         <v>72.000000000000014</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1.5</v>
       </c>
@@ -791,7 +791,7 @@
         <v>167.99999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2.5</v>
       </c>
@@ -837,7 +837,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -860,7 +860,7 @@
         <v>191.99999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3.5</v>
       </c>
@@ -883,7 +883,7 @@
         <v>168.00000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -906,7 +906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4.5</v>
       </c>
@@ -929,7 +929,7 @@
         <v>71.999999999999957</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0</v>
       </c>
@@ -998,13 +998,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:B39" si="8">C30*A30^2+D30*A30</f>
-        <v>0.72000000000000008</v>
+        <v>0.38</v>
       </c>
       <c r="C30">
         <v>-0.32</v>
@@ -1014,24 +1014,20 @@
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H30">
         <f t="shared" si="7"/>
-        <v>720.00000000000011</v>
-      </c>
-      <c r="I30">
-        <f>H30-H17</f>
-        <v>648.00000000000011</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B31">
         <f t="shared" si="8"/>
-        <v>1.28</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="C31">
         <v>-0.32</v>
@@ -1041,24 +1037,20 @@
       </c>
       <c r="G31">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>1280</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ref="I31:I38" si="9">H31-H18</f>
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>720.00000000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="B32">
         <f t="shared" si="8"/>
-        <v>1.6800000000000004</v>
+        <v>1.0200000000000002</v>
       </c>
       <c r="C32">
         <v>-0.32</v>
@@ -1068,24 +1060,20 @@
       </c>
       <c r="G32">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
-        <v>1680.0000000000005</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="9"/>
-        <v>1512.0000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1020.0000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33">
         <f t="shared" si="8"/>
-        <v>1.9200000000000002</v>
+        <v>1.28</v>
       </c>
       <c r="C33">
         <v>-0.32</v>
@@ -1095,24 +1083,20 @@
       </c>
       <c r="G33">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
-        <v>1920.0000000000002</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="9"/>
-        <v>1728.0000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="B34">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C34">
         <v>-0.32</v>
@@ -1122,24 +1106,20 @@
       </c>
       <c r="G34">
         <f t="shared" si="6"/>
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>2000</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="9"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="B35">
         <f t="shared" si="8"/>
-        <v>1.9200000000000008</v>
+        <v>1.6800000000000004</v>
       </c>
       <c r="C35">
         <v>-0.32</v>
@@ -1149,24 +1129,20 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H35">
         <f t="shared" si="7"/>
-        <v>1920.0000000000009</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="9"/>
-        <v>1728.0000000000009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1680.0000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="B36">
         <f t="shared" si="8"/>
-        <v>1.6800000000000006</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="C36">
         <v>-0.32</v>
@@ -1176,24 +1152,20 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="H36">
         <f t="shared" si="7"/>
-        <v>1680.0000000000007</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>1512.0000000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1820.0000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <f t="shared" si="8"/>
-        <v>1.2800000000000002</v>
+        <v>1.9200000000000002</v>
       </c>
       <c r="C37">
         <v>-0.32</v>
@@ -1203,24 +1175,20 @@
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H37">
         <f t="shared" si="7"/>
-        <v>1280.0000000000002</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="9"/>
-        <v>1152.0000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1920.0000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="B38">
         <f t="shared" si="8"/>
-        <v>0.71999999999999975</v>
+        <v>1.98</v>
       </c>
       <c r="C38">
         <v>-0.32</v>
@@ -1230,24 +1198,20 @@
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
-        <v>719.99999999999977</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="9"/>
-        <v>647.99999999999977</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="B39">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>-0.32</v>
@@ -1256,11 +1220,241 @@
         <v>1.6</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G39:G49" si="9">A39*1000</f>
+        <v>2500</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H49" si="10">B39*1000</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>2.75</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:B49" si="11">C40*A40^2+D40*A40</f>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="C40">
+        <v>-0.32</v>
+      </c>
+      <c r="D40">
+        <v>1.6</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>2750</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>1980.0000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="11"/>
+        <v>1.9200000000000008</v>
+      </c>
+      <c r="C41">
+        <v>-0.32</v>
+      </c>
+      <c r="D41">
+        <v>1.6</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="10"/>
+        <v>1920.0000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>3.25</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="11"/>
+        <v>1.8200000000000003</v>
+      </c>
+      <c r="C42">
+        <v>-0.32</v>
+      </c>
+      <c r="D42">
+        <v>1.6</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>3250</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>1820.0000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>3.5</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="11"/>
+        <v>1.6800000000000006</v>
+      </c>
+      <c r="C43">
+        <v>-0.32</v>
+      </c>
+      <c r="D43">
+        <v>1.6</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="10"/>
+        <v>1680.0000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>3.75</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="C44">
+        <v>-0.32</v>
+      </c>
+      <c r="D44">
+        <v>1.6</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>3750</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="11"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="C45">
+        <v>-0.32</v>
+      </c>
+      <c r="D45">
+        <v>1.6</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="10"/>
+        <v>1280.0000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>4.25</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="11"/>
+        <v>1.0200000000000005</v>
+      </c>
+      <c r="C46">
+        <v>-0.32</v>
+      </c>
+      <c r="D46">
+        <v>1.6</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="9"/>
+        <v>4250</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="10"/>
+        <v>1020.0000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>4.5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="11"/>
+        <v>0.71999999999999975</v>
+      </c>
+      <c r="C47">
+        <v>-0.32</v>
+      </c>
+      <c r="D47">
+        <v>1.6</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="10"/>
+        <v>719.99999999999977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>4.75</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="11"/>
+        <v>0.38000000000000078</v>
+      </c>
+      <c r="C48">
+        <v>-0.32</v>
+      </c>
+      <c r="D48">
+        <v>1.6</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>4750</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="10"/>
+        <v>380.0000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>-0.32</v>
+      </c>
+      <c r="D49">
+        <v>1.6</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="7"/>
+      <c r="H49">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
